--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Fzd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H2">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.25102137993188</v>
+        <v>1.269979666666667</v>
       </c>
       <c r="N2">
-        <v>1.25102137993188</v>
+        <v>3.809939</v>
       </c>
       <c r="O2">
-        <v>0.05145913190080674</v>
+        <v>0.05093337778110388</v>
       </c>
       <c r="P2">
-        <v>0.05145913190080674</v>
+        <v>0.05093337778110388</v>
       </c>
       <c r="Q2">
-        <v>7.32348025873602</v>
+        <v>0.2030701720265556</v>
       </c>
       <c r="R2">
-        <v>7.32348025873602</v>
+        <v>1.827631548239</v>
       </c>
       <c r="S2">
-        <v>0.05145913190080674</v>
+        <v>0.001348599686748495</v>
       </c>
       <c r="T2">
-        <v>0.05145913190080674</v>
+        <v>0.001348599686748496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H3">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.4337475366283</v>
+        <v>20.604156</v>
       </c>
       <c r="N3">
-        <v>20.4337475366283</v>
+        <v>61.812468</v>
       </c>
       <c r="O3">
-        <v>0.8405155392087675</v>
+        <v>0.8263433572627787</v>
       </c>
       <c r="P3">
-        <v>0.8405155392087675</v>
+        <v>0.8263433572627789</v>
       </c>
       <c r="Q3">
-        <v>119.6191760564808</v>
+        <v>3.294611412452</v>
       </c>
       <c r="R3">
-        <v>119.6191760564808</v>
+        <v>29.651502712068</v>
       </c>
       <c r="S3">
-        <v>0.8405155392087675</v>
+        <v>0.02187968757031317</v>
       </c>
       <c r="T3">
-        <v>0.8405155392087675</v>
+        <v>0.02187968757031317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H4">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.537520032554469</v>
+        <v>0.6519523333333334</v>
       </c>
       <c r="N4">
-        <v>0.537520032554469</v>
+        <v>1.955857</v>
       </c>
       <c r="O4">
-        <v>0.02211018508416899</v>
+        <v>0.02614698121592406</v>
       </c>
       <c r="P4">
-        <v>0.02211018508416899</v>
+        <v>0.02614698121592406</v>
       </c>
       <c r="Q4">
-        <v>3.146642743469457</v>
+        <v>0.1042473954174444</v>
       </c>
       <c r="R4">
-        <v>3.146642743469457</v>
+        <v>0.938226558757</v>
       </c>
       <c r="S4">
-        <v>0.02211018508416899</v>
+        <v>0.0006923124326990148</v>
       </c>
       <c r="T4">
-        <v>0.02211018508416899</v>
+        <v>0.000692312432699015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H5">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.574735221451795</v>
+        <v>0.7481240000000001</v>
       </c>
       <c r="N5">
-        <v>0.574735221451795</v>
+        <v>2.244372</v>
       </c>
       <c r="O5">
-        <v>0.02364098331424017</v>
+        <v>0.03000400976428538</v>
       </c>
       <c r="P5">
-        <v>0.02364098331424017</v>
+        <v>0.03000400976428539</v>
       </c>
       <c r="Q5">
-        <v>3.364500492015321</v>
+        <v>0.1196252769746667</v>
       </c>
       <c r="R5">
-        <v>3.364500492015321</v>
+        <v>1.076627492772</v>
       </c>
       <c r="S5">
-        <v>0.02364098331424017</v>
+        <v>0.0007944377524540667</v>
       </c>
       <c r="T5">
-        <v>0.02364098331424017</v>
+        <v>0.0007944377524540669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +785,359 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H6">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.5139452088503</v>
+        <v>1.659922</v>
       </c>
       <c r="N6">
-        <v>1.5139452088503</v>
+        <v>4.979766</v>
       </c>
       <c r="O6">
-        <v>0.06227416049201662</v>
+        <v>0.06657227397590788</v>
       </c>
       <c r="P6">
-        <v>0.06227416049201662</v>
+        <v>0.0665722739759079</v>
       </c>
       <c r="Q6">
-        <v>8.862636584537729</v>
+        <v>0.2654220811073333</v>
       </c>
       <c r="R6">
-        <v>8.862636584537729</v>
+        <v>2.388798729966</v>
       </c>
       <c r="S6">
-        <v>0.06227416049201662</v>
+        <v>0.001762681992462558</v>
       </c>
       <c r="T6">
-        <v>0.06227416049201662</v>
+        <v>0.001762681992462559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.879152</v>
+      </c>
+      <c r="H7">
+        <v>17.637456</v>
+      </c>
+      <c r="I7">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J7">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.269979666666667</v>
+      </c>
+      <c r="N7">
+        <v>3.809939</v>
+      </c>
+      <c r="O7">
+        <v>0.05093337778110388</v>
+      </c>
+      <c r="P7">
+        <v>0.05093337778110388</v>
+      </c>
+      <c r="Q7">
+        <v>7.466403497242667</v>
+      </c>
+      <c r="R7">
+        <v>67.197631475184</v>
+      </c>
+      <c r="S7">
+        <v>0.04958477809435538</v>
+      </c>
+      <c r="T7">
+        <v>0.04958477809435539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.879152</v>
+      </c>
+      <c r="H8">
+        <v>17.637456</v>
+      </c>
+      <c r="I8">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J8">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>20.604156</v>
+      </c>
+      <c r="N8">
+        <v>61.812468</v>
+      </c>
+      <c r="O8">
+        <v>0.8263433572627787</v>
+      </c>
+      <c r="P8">
+        <v>0.8263433572627789</v>
+      </c>
+      <c r="Q8">
+        <v>121.134964955712</v>
+      </c>
+      <c r="R8">
+        <v>1090.214684601408</v>
+      </c>
+      <c r="S8">
+        <v>0.8044636696924655</v>
+      </c>
+      <c r="T8">
+        <v>0.8044636696924657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.879152</v>
+      </c>
+      <c r="H9">
+        <v>17.637456</v>
+      </c>
+      <c r="I9">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J9">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6519523333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.955857</v>
+      </c>
+      <c r="O9">
+        <v>0.02614698121592406</v>
+      </c>
+      <c r="P9">
+        <v>0.02614698121592406</v>
+      </c>
+      <c r="Q9">
+        <v>3.832926864421334</v>
+      </c>
+      <c r="R9">
+        <v>34.496341779792</v>
+      </c>
+      <c r="S9">
+        <v>0.02545466878322504</v>
+      </c>
+      <c r="T9">
+        <v>0.02545466878322505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.879152</v>
+      </c>
+      <c r="H10">
+        <v>17.637456</v>
+      </c>
+      <c r="I10">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J10">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7481240000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.244372</v>
+      </c>
+      <c r="O10">
+        <v>0.03000400976428538</v>
+      </c>
+      <c r="P10">
+        <v>0.03000400976428539</v>
+      </c>
+      <c r="Q10">
+        <v>4.398334710848001</v>
+      </c>
+      <c r="R10">
+        <v>39.58501239763201</v>
+      </c>
+      <c r="S10">
+        <v>0.02920957201183131</v>
+      </c>
+      <c r="T10">
+        <v>0.02920957201183132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.879152</v>
+      </c>
+      <c r="H11">
+        <v>17.637456</v>
+      </c>
+      <c r="I11">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J11">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.659922</v>
+      </c>
+      <c r="N11">
+        <v>4.979766</v>
+      </c>
+      <c r="O11">
+        <v>0.06657227397590788</v>
+      </c>
+      <c r="P11">
+        <v>0.0665722739759079</v>
+      </c>
+      <c r="Q11">
+        <v>9.758933746144001</v>
+      </c>
+      <c r="R11">
+        <v>87.830403715296</v>
+      </c>
+      <c r="S11">
+        <v>0.06480959198344532</v>
+      </c>
+      <c r="T11">
+        <v>0.06480959198344534</v>
       </c>
     </row>
   </sheetData>
